--- a/TestData/Reports.xlsx
+++ b/TestData/Reports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProjectfromgit\Team2_OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625E3BB0-5CB4-4E42-A83C-A71B09064C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A58A4-E2C9-4825-A427-61FC1835B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17352" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>${report_name}</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>${Record}</t>
+  </si>
+  <si>
+    <t>No Records Found</t>
   </si>
 </sst>
 </file>
@@ -379,35 +385,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Reports.xlsx
+++ b/TestData/Reports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProjectfromgit\Team2_OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625E3BB0-5CB4-4E42-A83C-A71B09064C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D42DAF6-A5A9-4D42-9B33-F77481993167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17352" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>${report_name}</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Employee Contact info report</t>
-  </si>
-  <si>
-    <t>list</t>
   </si>
 </sst>
 </file>
@@ -379,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -405,11 +402,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Reports.xlsx
+++ b/TestData/Reports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A58A4-E2C9-4825-A427-61FC1835B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D42DAF6-A5A9-4D42-9B33-F77481993167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>${report_name}</t>
   </si>
@@ -34,15 +34,6 @@
   </si>
   <si>
     <t>Employee Contact info report</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>${Record}</t>
-  </si>
-  <si>
-    <t>No Records Found</t>
   </si>
 </sst>
 </file>
@@ -385,42 +376,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
